--- a/other/STDCad建模工具流程.xlsx
+++ b/other/STDCad建模工具流程.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E6DEB0AB-ED38-4654-AF1E-380D69EC0E6A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1A2A526F-19C6-4F6A-832D-B98DEBA9B5CB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="255" yWindow="2610" windowWidth="15225" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>1.StdGroup2Section</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,23 +117,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>handle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Beta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>thickness</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ModelSTD2Arr(BeamNo,Section,Beta,PointANo,PointAx,PointAy,PointAz,PointBNo,PointBx,PointBy,PointBz)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arr2ModelCAD(BeamNo,Section,Beta,PointANo,PointAx,PointAy,PointAz,PointBNo,PointBx,PointBy,PointBz)</t>
+    <t>ModelSTD2Arr(1BeamNo,2Section,3PointANo,4PointAx,5PointAy,6PointAz,7PointBNo,8PointBx,9PointBy,10PointBz)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arr2ModelCAD(1BeamNo,2Section,3PointANo,4PointAx,5PointAy,6PointAz,7PointBNo,8PointBx,9PointBy,10PointBz)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1886,10 +1878,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49:B54"/>
+    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1955,7 +1947,7 @@
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.2">
@@ -1984,15 +1976,7 @@
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>26</v>
-      </c>
-      <c r="C53" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
